--- a/Conspiracy-Benchmark.xlsx
+++ b/Conspiracy-Benchmark.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangzituo/TikTok-Conspiracy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B6D2D1-AC47-6840-AFD3-542A7BD893D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1FFB60-76B9-184B-9157-A4EDA1D7F16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="760" windowWidth="27840" windowHeight="17620" xr2:uid="{1C76CD6A-F8A2-2847-AD3D-0C81DB1A1DF5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Conspiracy-Benchmark" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1955,8 +1955,8 @@
   <dimension ref="A1:H532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D380" sqref="D380"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G451" sqref="G451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Conspiracy-Benchmark.xlsx
+++ b/Conspiracy-Benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangzituo/TikTok-Conspiracy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0554BF-2F36-7140-BDB5-0873E31BC0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5229EF-665B-D148-86EC-430539E6508F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="760" windowWidth="27840" windowHeight="17620" xr2:uid="{1C76CD6A-F8A2-2847-AD3D-0C81DB1A1DF5}"/>
   </bookViews>
@@ -1955,17 +1955,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46ED5CDF-9D6C-304C-8E92-2C79DEA3A8F3}">
   <dimension ref="A1:H532"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="44.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
-    <col min="8" max="8" width="10.83203125" style="2"/>
+    <col min="2" max="3" width="12.83203125" style="2" customWidth="1"/>
+    <col min="4" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1">
